--- a/data-raw/oecd.xlsx
+++ b/data-raw/oecd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caldwellst/Documents/repos/packages/whoville/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasa/who/whoville/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24981A3D-8E55-894B-B4E2-D0F6A1002342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA654D-60AA-6D4A-AA30-3ABF8EDF8157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -198,9 +189,6 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>GBR</t>
   </si>
   <si>
@@ -259,12 +247,15 @@
   </si>
   <si>
     <t>SVN</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,10 +636,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -661,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,18 +692,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -733,10 +724,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -797,10 +788,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,18 +820,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,10 +900,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -944,23 +935,23 @@
         <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -985,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
